--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57FA49-D23C-694E-8DCF-8D60EA2073A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F23A1A-D1BF-E848-8C67-BC2120AAC81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1600" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$270</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="189">
   <si>
     <t>Activity</t>
   </si>
@@ -206,12 +206,6 @@
   </si>
   <si>
     <t>sheet rolling, chromium steel</t>
-  </si>
-  <si>
-    <t>Carbon fiber, weaved, at factory</t>
-  </si>
-  <si>
-    <t>Carbon fiber, weaved</t>
   </si>
   <si>
     <t>market for epoxy resin, liquid</t>
@@ -607,6 +601,12 @@
   </si>
   <si>
     <t>transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>carbon fiber, weaved</t>
+  </si>
+  <si>
+    <t>carbon fiber production, weaved, at factory</t>
   </si>
 </sst>
 </file>
@@ -666,24 +666,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -970,38 +962,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228:H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1009,7 +1001,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1017,15 +1009,15 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1033,7 +1025,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1041,7 +1033,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1049,7 +1041,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -1057,12 +1049,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -1091,8 +1083,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>186</v>
+      <c r="A13" t="s">
+        <v>184</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1110,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1155,7 +1147,7 @@
       <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1178,7 +1170,7 @@
       <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1201,7 +1193,7 @@
       <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1381,7 +1373,7 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -1415,8 +1407,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>134</v>
+      <c r="A27" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B27">
         <v>250</v>
@@ -1433,20 +1425,20 @@
       <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>134</v>
+      <c r="I27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
@@ -1454,7 +1446,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31">
@@ -1462,15 +1454,15 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
@@ -1478,7 +1470,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
@@ -1486,7 +1478,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
@@ -1494,7 +1486,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
@@ -1502,12 +1494,12 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38" t="s">
@@ -1536,8 +1528,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>134</v>
+      <c r="A39" t="s">
+        <v>132</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1555,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1646,107 +1638,107 @@
       <c r="G43" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44">
         <v>7.1400000000000006</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
         <v>22</v>
       </c>
       <c r="G44" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>57</v>
+      <c r="I44" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5">
+        <v>56</v>
+      </c>
+      <c r="B45">
         <v>3.06</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
         <v>22</v>
       </c>
       <c r="G45" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>59</v>
+      <c r="I45" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>0.45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
         <v>60</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="5">
+        <v>61</v>
+      </c>
+      <c r="B47">
         <v>0.9</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" t="s">
         <v>22</v>
       </c>
       <c r="G47" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>64</v>
+      <c r="I47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>0.9</v>
       </c>
       <c r="C48" t="s">
@@ -1770,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1794,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1810,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1818,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1858,26 +1850,26 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>172</v>
+      <c r="A60" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
         <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1905,7 +1897,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>-2700</v>
@@ -1914,7 +1906,7 @@
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1923,12 +1915,12 @@
         <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>120000</v>
@@ -1946,7 +1938,7 @@
         <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1974,7 +1966,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B65">
         <v>0.56999999999999995</v>
@@ -1992,12 +1984,12 @@
         <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66">
         <v>15.3</v>
@@ -2015,12 +2007,12 @@
         <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>5340</v>
@@ -2038,12 +2030,12 @@
         <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68">
         <v>1200</v>
@@ -2055,18 +2047,18 @@
         <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s">
         <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>9000</v>
@@ -2078,24 +2070,24 @@
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
         <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
         <v>42</v>
@@ -2107,12 +2099,12 @@
         <v>23</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71">
         <v>1070</v>
@@ -2121,21 +2113,21 @@
         <v>21</v>
       </c>
       <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
         <v>83</v>
-      </c>
-      <c r="E71" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B72">
         <v>6580</v>
@@ -2147,18 +2139,18 @@
         <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s">
         <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B73">
         <f>0.6/250</f>
@@ -2171,24 +2163,21 @@
         <v>42</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F73" t="s">
         <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2212,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2228,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2236,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2276,26 +2265,26 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>173</v>
+      <c r="A85" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D85" t="s">
         <v>42</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2323,7 +2312,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B87">
         <v>-10900</v>
@@ -2332,7 +2321,7 @@
         <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -2341,12 +2330,12 @@
         <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B88">
         <v>225000</v>
@@ -2364,7 +2353,7 @@
         <v>23</v>
       </c>
       <c r="G88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2392,7 +2381,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B90">
         <v>1.9</v>
@@ -2410,12 +2399,12 @@
         <v>23</v>
       </c>
       <c r="G90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B91">
         <v>51.1</v>
@@ -2433,12 +2422,12 @@
         <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B92">
         <v>21800</v>
@@ -2456,12 +2445,12 @@
         <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B93">
         <v>1200</v>
@@ -2473,18 +2462,18 @@
         <v>42</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F93" t="s">
         <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B94">
         <v>9000</v>
@@ -2496,24 +2485,24 @@
         <v>42</v>
       </c>
       <c r="E94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F94" t="s">
         <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B95">
         <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
         <v>42</v>
@@ -2525,12 +2514,12 @@
         <v>23</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B96">
         <v>13600</v>
@@ -2539,21 +2528,21 @@
         <v>21</v>
       </c>
       <c r="D96" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" t="s">
+        <v>82</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
         <v>83</v>
-      </c>
-      <c r="E96" t="s">
-        <v>84</v>
-      </c>
-      <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B97">
         <v>4390</v>
@@ -2565,18 +2554,18 @@
         <v>42</v>
       </c>
       <c r="E97" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F97" t="s">
         <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B98">
         <f>0.6/250</f>
@@ -2589,24 +2578,21 @@
         <v>42</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F98" t="s">
         <v>23</v>
       </c>
       <c r="G98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -2630,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -2654,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -2697,14 +2683,14 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>81</v>
+      <c r="A110" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D110" t="s">
         <v>42</v>
@@ -2716,12 +2702,12 @@
         <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>182</v>
+      <c r="A111" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B111">
         <v>-1.4E-5</v>
@@ -2739,12 +2725,12 @@
         <v>23</v>
       </c>
       <c r="H111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>178</v>
+      <c r="A112" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B112">
         <v>-1.6000000000000001E-4</v>
@@ -2753,7 +2739,7 @@
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F112" t="s">
         <v>22</v>
@@ -2762,12 +2748,12 @@
         <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="14" t="s">
-        <v>180</v>
+      <c r="A113" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B113">
         <v>-9.0600000000000007E-5</v>
@@ -2785,12 +2771,12 @@
         <v>23</v>
       </c>
       <c r="H113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>86</v>
+      <c r="A114" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B114">
         <v>0.2</v>
@@ -2799,7 +2785,7 @@
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F114" t="s">
         <v>22</v>
@@ -2807,13 +2793,13 @@
       <c r="G114" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>87</v>
+      <c r="H114" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>88</v>
+      <c r="A115" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B115">
         <v>1.5E-3</v>
@@ -2831,35 +2817,35 @@
         <v>23</v>
       </c>
       <c r="H115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="5">
+        <v>9.0599999999999999E-7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B116" s="11">
-        <v>9.0599999999999999E-7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>23</v>
-      </c>
-      <c r="H116" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="B117">
         <v>3.5999999999999994E-5</v>
@@ -2877,12 +2863,12 @@
         <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>94</v>
+      <c r="A118" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B118">
         <v>0.76800000000000002</v>
@@ -2891,21 +2877,21 @@
         <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G118" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
-      <c r="H118" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="B119">
         <v>2.01E-2</v>
@@ -2917,18 +2903,18 @@
         <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G119" t="s">
         <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>99</v>
+      <c r="A120" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B120">
         <v>2.2200000000000001E-2</v>
@@ -2946,12 +2932,12 @@
         <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>101</v>
+      <c r="A121" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B121">
         <v>0.76800000000000002</v>
@@ -2960,23 +2946,23 @@
         <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G121" t="s">
         <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B122" s="11">
+      <c r="A122" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="5">
         <v>1.6300000000000001E-13</v>
       </c>
       <c r="C122" t="s">
@@ -2992,12 +2978,12 @@
         <v>23</v>
       </c>
       <c r="H122" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>105</v>
+      <c r="A123" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3015,12 +3001,12 @@
         <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>107</v>
+      <c r="A124" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B124">
         <v>3.8000000000000002E-4</v>
@@ -3038,12 +3024,12 @@
         <v>23</v>
       </c>
       <c r="H124" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>187</v>
+      <c r="A125" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B125">
         <v>8.0399999999999985E-3</v>
@@ -3055,476 +3041,476 @@
         <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G125" t="s">
         <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126" s="6">
+        <v>2.0333333333333332E-2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" t="s">
+        <v>59</v>
+      </c>
+      <c r="G126" t="s">
+        <v>23</v>
+      </c>
+      <c r="H126" t="s">
         <v>60</v>
       </c>
-      <c r="B126" s="12">
-        <v>2.0333333333333332E-2</v>
-      </c>
-      <c r="C126" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" t="s">
-        <v>42</v>
-      </c>
-      <c r="F126" t="s">
-        <v>61</v>
-      </c>
-      <c r="G126" t="s">
-        <v>23</v>
-      </c>
-      <c r="H126" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>109</v>
+      <c r="A127" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B127">
         <v>4.3600000000000003E-5</v>
       </c>
       <c r="C127" t="s">
+        <v>108</v>
+      </c>
+      <c r="E127" t="s">
+        <v>109</v>
+      </c>
+      <c r="F127" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
         <v>110</v>
       </c>
-      <c r="E127" t="s">
+    </row>
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="B128">
         <v>1.9000000000000002E-10</v>
       </c>
       <c r="C128" t="s">
+        <v>108</v>
+      </c>
+      <c r="E128" t="s">
+        <v>109</v>
+      </c>
+      <c r="F128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
         <v>110</v>
       </c>
-      <c r="E128" t="s">
-        <v>111</v>
-      </c>
-      <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
+    </row>
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="B129">
         <v>1.3200000000000001E-5</v>
       </c>
       <c r="C129" t="s">
+        <v>108</v>
+      </c>
+      <c r="E129" t="s">
+        <v>113</v>
+      </c>
+      <c r="F129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
         <v>110</v>
       </c>
-      <c r="E129" t="s">
+    </row>
+    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1.31E-9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>108</v>
+      </c>
+      <c r="E130" t="s">
+        <v>109</v>
+      </c>
+      <c r="F130" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" s="11">
-        <v>1.31E-9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>110</v>
-      </c>
-      <c r="E130" t="s">
-        <v>111</v>
-      </c>
-      <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="B131">
         <v>1.3200000000000001E-4</v>
       </c>
       <c r="C131" t="s">
+        <v>108</v>
+      </c>
+      <c r="E131" t="s">
+        <v>113</v>
+      </c>
+      <c r="F131" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
         <v>110</v>
       </c>
-      <c r="E131" t="s">
-        <v>115</v>
-      </c>
-      <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>118</v>
+      <c r="A132" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B132">
         <v>1.88E-6</v>
       </c>
       <c r="C132" t="s">
+        <v>108</v>
+      </c>
+      <c r="E132" t="s">
+        <v>113</v>
+      </c>
+      <c r="F132" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
         <v>110</v>
       </c>
-      <c r="E132" t="s">
-        <v>115</v>
-      </c>
-      <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B133" s="11">
+      <c r="A133" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="5">
         <v>7.6000000000000002E-9</v>
       </c>
       <c r="C133" t="s">
+        <v>108</v>
+      </c>
+      <c r="E133" t="s">
+        <v>113</v>
+      </c>
+      <c r="F133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
         <v>110</v>
       </c>
-      <c r="E133" t="s">
-        <v>115</v>
-      </c>
-      <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>120</v>
+      <c r="A134" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B134">
         <v>1.5699999999999999E-4</v>
       </c>
       <c r="C134" t="s">
+        <v>108</v>
+      </c>
+      <c r="E134" t="s">
+        <v>109</v>
+      </c>
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
         <v>110</v>
       </c>
-      <c r="E134" t="s">
-        <v>111</v>
-      </c>
-      <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>121</v>
+      <c r="A135" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B135">
         <v>7.62E-3</v>
       </c>
       <c r="C135" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" t="s">
+        <v>109</v>
+      </c>
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" t="s">
         <v>110</v>
       </c>
-      <c r="E135" t="s">
-        <v>111</v>
-      </c>
-      <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B136" s="11">
+      <c r="A136" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="5">
         <v>1.1900000000000001E-7</v>
       </c>
       <c r="C136" t="s">
+        <v>108</v>
+      </c>
+      <c r="E136" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s">
         <v>110</v>
       </c>
-      <c r="E136" t="s">
-        <v>115</v>
-      </c>
-      <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>123</v>
+      <c r="A137" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B137">
         <v>1.8300000000000001E-5</v>
       </c>
       <c r="C137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" t="s">
+        <v>109</v>
+      </c>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" t="s">
         <v>110</v>
       </c>
-      <c r="E137" t="s">
-        <v>111</v>
-      </c>
-      <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>124</v>
+      <c r="A138" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B138">
         <v>1.3999999999999999E-6</v>
       </c>
       <c r="C138" t="s">
+        <v>108</v>
+      </c>
+      <c r="E138" t="s">
+        <v>109</v>
+      </c>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
         <v>110</v>
       </c>
-      <c r="E138" t="s">
-        <v>111</v>
-      </c>
-      <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>124</v>
+      <c r="A139" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B139">
         <v>5.6499999999999993E-6</v>
       </c>
       <c r="C139" t="s">
+        <v>108</v>
+      </c>
+      <c r="E139" t="s">
+        <v>113</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
         <v>110</v>
       </c>
-      <c r="E139" t="s">
-        <v>115</v>
-      </c>
-      <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" s="5">
+        <v>3.4000000000000003E-9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>108</v>
+      </c>
+      <c r="E140" t="s">
+        <v>109</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="5">
+        <v>1.51E-9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>108</v>
+      </c>
+      <c r="E141" t="s">
+        <v>113</v>
+      </c>
+      <c r="F141" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" s="5">
+        <v>9.9999999999999986E-10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>108</v>
+      </c>
+      <c r="E142" t="s">
+        <v>113</v>
+      </c>
+      <c r="F142" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B140" s="11">
-        <v>3.4000000000000003E-9</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B143" s="5">
+        <v>1.0399999999999999E-7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>108</v>
+      </c>
+      <c r="E143" t="s">
+        <v>113</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" t="s">
         <v>110</v>
       </c>
-      <c r="E140" t="s">
-        <v>111</v>
-      </c>
-      <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B141" s="11">
-        <v>1.51E-9</v>
-      </c>
-      <c r="C141" t="s">
+    </row>
+    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B144" s="5">
+        <v>9.0000000000000012E-8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E144" t="s">
+        <v>113</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
         <v>110</v>
       </c>
-      <c r="E141" t="s">
-        <v>115</v>
-      </c>
-      <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B142" s="11">
-        <v>9.9999999999999986E-10</v>
-      </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="5">
+        <v>2.2399999999999999E-7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>108</v>
+      </c>
+      <c r="E145" t="s">
+        <v>113</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
         <v>110</v>
       </c>
-      <c r="E142" t="s">
-        <v>115</v>
-      </c>
-      <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B143" s="11">
-        <v>1.0399999999999999E-7</v>
-      </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B146" s="5">
+        <v>2.9700000000000003E-7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>108</v>
+      </c>
+      <c r="E146" t="s">
+        <v>113</v>
+      </c>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
         <v>110</v>
       </c>
-      <c r="E143" t="s">
-        <v>115</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B144" s="11">
-        <v>9.0000000000000012E-8</v>
-      </c>
-      <c r="C144" t="s">
+    </row>
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="5">
+        <v>2.7500000000000001E-5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>108</v>
+      </c>
+      <c r="E147" t="s">
+        <v>109</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
         <v>110</v>
       </c>
-      <c r="E144" t="s">
-        <v>115</v>
-      </c>
-      <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B145" s="11">
-        <v>2.2399999999999999E-7</v>
-      </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1.9E-6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>108</v>
+      </c>
+      <c r="E148" t="s">
+        <v>113</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
         <v>110</v>
-      </c>
-      <c r="E145" t="s">
-        <v>115</v>
-      </c>
-      <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B146" s="11">
-        <v>2.9700000000000003E-7</v>
-      </c>
-      <c r="C146" t="s">
-        <v>110</v>
-      </c>
-      <c r="E146" t="s">
-        <v>115</v>
-      </c>
-      <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B147" s="11">
-        <v>2.7500000000000001E-5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>110</v>
-      </c>
-      <c r="E147" t="s">
-        <v>111</v>
-      </c>
-      <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B148" s="11">
-        <v>1.9E-6</v>
-      </c>
-      <c r="C148" t="s">
-        <v>110</v>
-      </c>
-      <c r="E148" t="s">
-        <v>115</v>
-      </c>
-      <c r="F148" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3532,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -3556,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -3580,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -3623,14 +3609,14 @@
       </c>
     </row>
     <row r="160" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>136</v>
+      <c r="A160" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D160" t="s">
         <v>42</v>
@@ -3642,14 +3628,14 @@
         <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B161" s="11">
+      <c r="A161" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" s="5">
         <v>1.61E-7</v>
       </c>
       <c r="C161" t="s">
@@ -3665,37 +3651,37 @@
         <v>23</v>
       </c>
       <c r="H161" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162" s="5">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" t="s">
+        <v>140</v>
+      </c>
+      <c r="F162" t="s">
+        <v>22</v>
+      </c>
+      <c r="G162" t="s">
+        <v>23</v>
+      </c>
+      <c r="H162" t="s">
         <v>141</v>
       </c>
-      <c r="B162" s="11">
-        <v>3.1999999999999999E-5</v>
-      </c>
-      <c r="C162" t="s">
-        <v>21</v>
-      </c>
-      <c r="D162" t="s">
-        <v>142</v>
-      </c>
-      <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" t="s">
-        <v>23</v>
-      </c>
-      <c r="H162" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B163" s="11">
+      <c r="A163" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="5">
         <v>3.2000000000000003E-4</v>
       </c>
       <c r="C163" t="s">
@@ -3711,14 +3697,14 @@
         <v>23</v>
       </c>
       <c r="H163" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B164" s="11">
+      <c r="A164" t="s">
+        <v>146</v>
+      </c>
+      <c r="B164" s="5">
         <v>0.16600000000000001</v>
       </c>
       <c r="C164" t="s">
@@ -3734,30 +3720,30 @@
         <v>23</v>
       </c>
       <c r="H164" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+      <c r="A165" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="C165" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" t="s">
+        <v>59</v>
+      </c>
+      <c r="G165" t="s">
+        <v>23</v>
+      </c>
+      <c r="H165" t="s">
         <v>60</v>
-      </c>
-      <c r="B165" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="C165" t="s">
-        <v>21</v>
-      </c>
-      <c r="D165" t="s">
-        <v>42</v>
-      </c>
-      <c r="F165" t="s">
-        <v>61</v>
-      </c>
-      <c r="G165" t="s">
-        <v>23</v>
-      </c>
-      <c r="H165" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3765,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -3789,7 +3775,7 @@
         <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -3813,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -3856,14 +3842,14 @@
       </c>
     </row>
     <row r="177" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>146</v>
+      <c r="A177" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D177" t="s">
         <v>42</v>
@@ -3875,14 +3861,14 @@
         <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B178" s="11">
+      <c r="A178" t="s">
+        <v>142</v>
+      </c>
+      <c r="B178" s="5">
         <v>1.61E-7</v>
       </c>
       <c r="C178" t="s">
@@ -3898,37 +3884,37 @@
         <v>23</v>
       </c>
       <c r="H178" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B179" s="5">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" t="s">
+        <v>140</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>23</v>
+      </c>
+      <c r="H179" t="s">
         <v>141</v>
       </c>
-      <c r="B179" s="11">
-        <v>3.1999999999999999E-5</v>
-      </c>
-      <c r="C179" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" t="s">
-        <v>142</v>
-      </c>
-      <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>23</v>
-      </c>
-      <c r="H179" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B180" s="11">
+      <c r="A180" t="s">
+        <v>137</v>
+      </c>
+      <c r="B180" s="5">
         <v>3.2000000000000003E-4</v>
       </c>
       <c r="C180" t="s">
@@ -3944,14 +3930,14 @@
         <v>23</v>
       </c>
       <c r="H180" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B181" s="11">
+      <c r="A181" t="s">
+        <v>146</v>
+      </c>
+      <c r="B181" s="5">
         <v>0.16600000000000001</v>
       </c>
       <c r="C181" t="s">
@@ -3967,35 +3953,35 @@
         <v>23</v>
       </c>
       <c r="H181" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C182" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" t="s">
+        <v>42</v>
+      </c>
+      <c r="F182" t="s">
+        <v>59</v>
+      </c>
+      <c r="G182" t="s">
+        <v>23</v>
+      </c>
+      <c r="H182" t="s">
         <v>60</v>
       </c>
-      <c r="B182" s="11">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C182" t="s">
-        <v>21</v>
-      </c>
-      <c r="D182" t="s">
-        <v>42</v>
-      </c>
-      <c r="F182" t="s">
-        <v>61</v>
-      </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
-      <c r="H182" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="5" t="s">
-        <v>97</v>
+      <c r="A183" t="s">
+        <v>95</v>
       </c>
       <c r="B183">
         <f>9.5*3.6</f>
@@ -4008,13 +3994,13 @@
         <v>42</v>
       </c>
       <c r="F183" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G183" t="s">
         <v>23</v>
       </c>
       <c r="H183" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4022,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -4046,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -4070,7 +4056,7 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -4113,10 +4099,10 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B195" s="13">
+      <c r="A195" t="s">
+        <v>146</v>
+      </c>
+      <c r="B195" s="7">
         <v>1</v>
       </c>
       <c r="C195" t="s">
@@ -4132,12 +4118,12 @@
         <v>19</v>
       </c>
       <c r="H195" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
-        <v>150</v>
+      <c r="A196" t="s">
+        <v>148</v>
       </c>
       <c r="B196">
         <v>1.2</v>
@@ -4146,7 +4132,7 @@
         <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F196" t="s">
         <v>22</v>
@@ -4154,13 +4140,13 @@
       <c r="G196" t="s">
         <v>23</v>
       </c>
-      <c r="H196" s="7" t="s">
-        <v>151</v>
+      <c r="H196" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="7" t="s">
-        <v>152</v>
+      <c r="A197" t="s">
+        <v>150</v>
       </c>
       <c r="B197">
         <v>1.03</v>
@@ -4177,13 +4163,13 @@
       <c r="G197" t="s">
         <v>23</v>
       </c>
-      <c r="H197" s="7" t="s">
-        <v>153</v>
+      <c r="H197" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
-        <v>154</v>
+      <c r="A198" t="s">
+        <v>152</v>
       </c>
       <c r="B198">
         <v>0.26</v>
@@ -4200,15 +4186,15 @@
       <c r="G198" t="s">
         <v>23</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H198" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B199" s="11">
+      <c r="B199" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C199" t="s">
@@ -4223,13 +4209,13 @@
       <c r="G199" t="s">
         <v>23</v>
       </c>
-      <c r="H199" s="7" t="s">
-        <v>158</v>
+      <c r="H199" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
-        <v>60</v>
+      <c r="A200" t="s">
+        <v>58</v>
       </c>
       <c r="B200">
         <v>42.1</v>
@@ -4241,18 +4227,18 @@
         <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G200" t="s">
         <v>23</v>
       </c>
       <c r="H200" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>97</v>
+      <c r="A201" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B201">
         <v>2.7</v>
@@ -4264,18 +4250,18 @@
         <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G201" t="s">
         <v>23</v>
       </c>
       <c r="H201" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B202">
         <v>0.2</v>
@@ -4287,13 +4273,13 @@
         <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G202" t="s">
         <v>23</v>
       </c>
       <c r="H202" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4301,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -4325,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -4348,8 +4334,8 @@
       <c r="A210" t="s">
         <v>10</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>161</v>
+      <c r="B210" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -4392,10 +4378,10 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B214" s="13">
+      <c r="A214" t="s">
+        <v>160</v>
+      </c>
+      <c r="B214" s="7">
         <v>1</v>
       </c>
       <c r="C214" t="s">
@@ -4411,12 +4397,12 @@
         <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="7" t="s">
-        <v>60</v>
+      <c r="A215" t="s">
+        <v>58</v>
       </c>
       <c r="B215">
         <v>9.375E-2</v>
@@ -4428,18 +4414,18 @@
         <v>42</v>
       </c>
       <c r="F215" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G215" t="s">
         <v>23</v>
       </c>
       <c r="H215" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
-        <v>159</v>
+      <c r="A216" t="s">
+        <v>157</v>
       </c>
       <c r="B216">
         <v>31.25</v>
@@ -4448,7 +4434,7 @@
         <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F216" t="s">
         <v>22</v>
@@ -4457,7 +4443,7 @@
         <v>23</v>
       </c>
       <c r="H216" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4465,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -4489,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -4512,8 +4498,8 @@
       <c r="A224" t="s">
         <v>10</v>
       </c>
-      <c r="B224" s="7" t="s">
-        <v>165</v>
+      <c r="B224" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -4556,10 +4542,10 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B228" s="13">
+      <c r="A228" t="s">
+        <v>161</v>
+      </c>
+      <c r="B228" s="7">
         <v>1</v>
       </c>
       <c r="C228" t="s">
@@ -4575,12 +4561,12 @@
         <v>19</v>
       </c>
       <c r="H228" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
-        <v>60</v>
+      <c r="A229" t="s">
+        <v>58</v>
       </c>
       <c r="B229">
         <v>0.34399999999999997</v>
@@ -4592,459 +4578,482 @@
         <v>42</v>
       </c>
       <c r="F229" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G229" t="s">
         <v>23</v>
       </c>
       <c r="H229" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>160</v>
+      </c>
+      <c r="B230" s="7">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" t="s">
+        <v>42</v>
+      </c>
+      <c r="F230" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" t="s">
+        <v>23</v>
+      </c>
+      <c r="H230" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>1</v>
-      </c>
-      <c r="B232" t="s">
-        <v>42</v>
+      <c r="B232" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>166</v>
+        <v>3</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B236" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>10</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>169</v>
+        <v>7</v>
+      </c>
+      <c r="B237" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>8</v>
       </c>
-      <c r="B238" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
+      <c r="B239" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>13</v>
-      </c>
-      <c r="B240" t="s">
-        <v>14</v>
-      </c>
-      <c r="C240" t="s">
-        <v>15</v>
-      </c>
-      <c r="D240" t="s">
-        <v>1</v>
-      </c>
-      <c r="E240" t="s">
-        <v>16</v>
-      </c>
-      <c r="F240" t="s">
-        <v>7</v>
-      </c>
-      <c r="G240" t="s">
-        <v>5</v>
-      </c>
-      <c r="H240" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>166</v>
-      </c>
-      <c r="B241">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B241" t="s">
+        <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>16</v>
       </c>
       <c r="F241" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G241" t="s">
+        <v>5</v>
+      </c>
+      <c r="H241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>164</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>65</v>
+      </c>
+      <c r="D242" t="s">
+        <v>42</v>
+      </c>
+      <c r="F242" t="s">
+        <v>22</v>
+      </c>
+      <c r="G242" t="s">
         <v>19</v>
       </c>
-      <c r="H241" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="7" t="s">
+      <c r="H242" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>58</v>
+      </c>
+      <c r="B243">
+        <v>2.46</v>
+      </c>
+      <c r="C243" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" t="s">
+        <v>42</v>
+      </c>
+      <c r="F243" t="s">
+        <v>59</v>
+      </c>
+      <c r="G243" t="s">
+        <v>23</v>
+      </c>
+      <c r="H243" t="s">
         <v>60</v>
       </c>
-      <c r="B242">
-        <v>2.46</v>
-      </c>
-      <c r="C242" t="s">
-        <v>21</v>
-      </c>
-      <c r="D242" t="s">
-        <v>42</v>
-      </c>
-      <c r="F242" t="s">
-        <v>61</v>
-      </c>
-      <c r="G242" t="s">
-        <v>23</v>
-      </c>
-      <c r="H242" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B243">
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>168</v>
+      </c>
+      <c r="B244">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C243" t="s">
-        <v>21</v>
-      </c>
-      <c r="D243" t="s">
-        <v>42</v>
-      </c>
-      <c r="F243" t="s">
-        <v>22</v>
-      </c>
-      <c r="G243" t="s">
-        <v>23</v>
-      </c>
-      <c r="H243" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
+      <c r="C244" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" t="s">
+        <v>42</v>
+      </c>
+      <c r="F244" t="s">
+        <v>22</v>
+      </c>
+      <c r="G244" t="s">
+        <v>23</v>
+      </c>
+      <c r="H244" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>1</v>
-      </c>
-      <c r="B246" t="s">
-        <v>42</v>
+      <c r="B246" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>3</v>
-      </c>
-      <c r="B247">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>4</v>
-      </c>
-      <c r="B248" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B251" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>8</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
+    <row r="254" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>13</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>14</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" t="s">
         <v>15</v>
       </c>
-      <c r="D254" t="s">
-        <v>1</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="D255" t="s">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
         <v>7</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F255" t="s">
         <v>5</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G255" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-      <c r="C255" t="s">
-        <v>67</v>
-      </c>
-      <c r="D255" t="s">
-        <v>42</v>
-      </c>
-      <c r="E255" t="s">
-        <v>66</v>
-      </c>
-      <c r="F255" t="s">
+    <row r="256" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>65</v>
+      </c>
+      <c r="D256" t="s">
+        <v>42</v>
+      </c>
+      <c r="E256" t="s">
+        <v>64</v>
+      </c>
+      <c r="F256" t="s">
         <v>19</v>
       </c>
-      <c r="G255" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B256">
+      <c r="G256" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257">
         <f>0.6/250</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C256" t="s">
-        <v>21</v>
-      </c>
-      <c r="D256" t="s">
-        <v>42</v>
-      </c>
-      <c r="E256" t="s">
-        <v>61</v>
-      </c>
-      <c r="F256" t="s">
-        <v>23</v>
-      </c>
-      <c r="G256" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
+      <c r="C257" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" t="s">
+        <v>42</v>
+      </c>
+      <c r="E257" t="s">
+        <v>59</v>
+      </c>
+      <c r="F257" t="s">
+        <v>23</v>
+      </c>
+      <c r="G257" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>1</v>
-      </c>
-      <c r="B259" t="s">
-        <v>42</v>
+      <c r="B259" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>3</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B260" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>4</v>
-      </c>
-      <c r="B261" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>8</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>13</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>14</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C268" t="s">
         <v>15</v>
       </c>
-      <c r="D267" t="s">
-        <v>1</v>
-      </c>
-      <c r="E267" t="s">
+      <c r="D268" t="s">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
         <v>7</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F268" t="s">
         <v>5</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G268" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-      <c r="C268" t="s">
-        <v>67</v>
-      </c>
-      <c r="D268" t="s">
-        <v>42</v>
-      </c>
-      <c r="E268" t="s">
-        <v>66</v>
-      </c>
-      <c r="F268" t="s">
+    <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
+        <v>65</v>
+      </c>
+      <c r="D269" t="s">
+        <v>42</v>
+      </c>
+      <c r="E269" t="s">
+        <v>64</v>
+      </c>
+      <c r="F269" t="s">
         <v>19</v>
       </c>
-      <c r="G268" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B269">
+      <c r="G269" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>58</v>
+      </c>
+      <c r="B270">
         <f>0.6/250</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C269" t="s">
-        <v>21</v>
-      </c>
-      <c r="D269" t="s">
-        <v>42</v>
-      </c>
-      <c r="E269" t="s">
-        <v>61</v>
-      </c>
-      <c r="F269" t="s">
-        <v>23</v>
-      </c>
-      <c r="G269" t="s">
-        <v>62</v>
+      <c r="C270" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" t="s">
+        <v>42</v>
+      </c>
+      <c r="E270" t="s">
+        <v>59</v>
+      </c>
+      <c r="F270" t="s">
+        <v>23</v>
+      </c>
+      <c r="G270" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I269" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I270" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59737C4A-9C2C-6F41-BA5B-1B7897B41C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5706C-51BD-4948-A10A-5B818D7588A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="320" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="1760" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1276,10 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C459" sqref="C459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1298,7 +1299,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1362,12 +1364,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1534,7 +1536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1580,7 +1582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1603,7 +1605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1626,7 +1628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1672,7 +1674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1720,7 +1722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>118</v>
       </c>
@@ -1743,7 +1745,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1807,12 +1810,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2071,7 +2074,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2089,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2103,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>3</v>
       </c>
@@ -2121,7 +2125,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2139,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2153,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2167,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>10</v>
       </c>
@@ -2177,7 +2181,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>8</v>
       </c>
@@ -2191,7 +2195,7 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>12</v>
       </c>
@@ -2202,7 +2206,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
     </row>
-    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>13</v>
       </c>
@@ -2262,7 +2266,7 @@
       </c>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>174</v>
       </c>
@@ -2289,7 +2293,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>189</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>190</v>
       </c>
@@ -2404,7 +2408,7 @@
       </c>
       <c r="T63"/>
     </row>
-    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>191</v>
       </c>
@@ -2460,7 +2464,7 @@
       </c>
       <c r="T64"/>
     </row>
-    <row r="65" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>193</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>196</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>197</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>200</v>
       </c>
@@ -2672,7 +2676,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>201</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>202</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>203</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>205</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>207</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>207</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J75"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -2983,7 +2987,7 @@
       <c r="Q75"/>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
@@ -2997,7 +3001,7 @@
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
     </row>
-    <row r="77" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>1</v>
       </c>
@@ -3011,7 +3015,7 @@
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>175</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>3</v>
       </c>
@@ -3033,7 +3037,7 @@
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
     </row>
-    <row r="80" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>4</v>
       </c>
@@ -3047,7 +3051,7 @@
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
     </row>
-    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3065,7 @@
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
     </row>
-    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>7</v>
       </c>
@@ -3075,7 +3079,7 @@
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
     </row>
-    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>10</v>
       </c>
@@ -3089,7 +3093,7 @@
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
     </row>
-    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +3107,7 @@
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
     </row>
-    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +3118,7 @@
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
     </row>
-    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>13</v>
       </c>
@@ -3174,7 +3178,7 @@
       </c>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="str">
         <f>B76</f>
         <v>pipeline, hydrogen, high pressure transmission network</v>
@@ -3202,7 +3206,7 @@
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
     </row>
-    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>211</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>212</v>
       </c>
@@ -3317,7 +3321,7 @@
       </c>
       <c r="T89"/>
     </row>
-    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>213</v>
       </c>
@@ -3373,7 +3377,7 @@
       </c>
       <c r="T90"/>
     </row>
-    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>193</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>196</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>197</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>200</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>201</v>
       </c>
@@ -3630,7 +3634,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>202</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>203</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>205</v>
       </c>
@@ -3777,7 +3781,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>207</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>207</v>
       </c>
@@ -3875,7 +3879,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J101"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
@@ -3886,7 +3890,7 @@
       <c r="Q101"/>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -3900,7 +3904,7 @@
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
     </row>
-    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>1</v>
       </c>
@@ -3914,7 +3918,7 @@
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>3</v>
       </c>
@@ -3936,7 +3940,7 @@
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
     </row>
-    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>4</v>
       </c>
@@ -3950,7 +3954,7 @@
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
     </row>
-    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>5</v>
       </c>
@@ -3964,7 +3968,7 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
     </row>
-    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>7</v>
       </c>
@@ -3978,7 +3982,7 @@
       <c r="O108" s="9"/>
       <c r="P108" s="9"/>
     </row>
-    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>10</v>
       </c>
@@ -3992,7 +3996,7 @@
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
     </row>
-    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>8</v>
       </c>
@@ -4006,7 +4010,7 @@
       <c r="O110" s="9"/>
       <c r="P110" s="9"/>
     </row>
-    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>12</v>
       </c>
@@ -4017,7 +4021,7 @@
       <c r="O111" s="9"/>
       <c r="P111" s="9"/>
     </row>
-    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>13</v>
       </c>
@@ -4077,7 +4081,7 @@
       </c>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="str">
         <f>B102</f>
         <v>hydrogen distribution pipeline construction</v>
@@ -4104,7 +4108,7 @@
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
     </row>
-    <row r="114" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>217</v>
       </c>
@@ -4112,7 +4116,7 @@
         <v>2E-3</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>198</v>
@@ -4169,7 +4173,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>220</v>
       </c>
@@ -4224,7 +4228,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>222</v>
       </c>
@@ -4279,7 +4283,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="117" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>223</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>79</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="119" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>225</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>20</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J121"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
@@ -4510,7 +4514,7 @@
       <c r="Q121"/>
       <c r="R121"/>
     </row>
-    <row r="122" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>0</v>
       </c>
@@ -4524,7 +4528,7 @@
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
     </row>
-    <row r="123" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>1</v>
       </c>
@@ -4538,7 +4542,7 @@
       <c r="O123" s="9"/>
       <c r="P123" s="9"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>175</v>
       </c>
@@ -4546,7 +4550,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="125" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>3</v>
       </c>
@@ -4560,7 +4564,7 @@
       <c r="O125" s="9"/>
       <c r="P125" s="9"/>
     </row>
-    <row r="126" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>4</v>
       </c>
@@ -4574,7 +4578,7 @@
       <c r="O126" s="9"/>
       <c r="P126" s="9"/>
     </row>
-    <row r="127" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>5</v>
       </c>
@@ -4588,7 +4592,7 @@
       <c r="O127" s="9"/>
       <c r="P127" s="9"/>
     </row>
-    <row r="128" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>7</v>
       </c>
@@ -4602,7 +4606,7 @@
       <c r="O128" s="9"/>
       <c r="P128" s="9"/>
     </row>
-    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>10</v>
       </c>
@@ -4616,7 +4620,7 @@
       <c r="O129" s="9"/>
       <c r="P129" s="9"/>
     </row>
-    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>8</v>
       </c>
@@ -4630,7 +4634,7 @@
       <c r="O130" s="9"/>
       <c r="P130" s="9"/>
     </row>
-    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>12</v>
       </c>
@@ -4641,7 +4645,7 @@
       <c r="O131" s="9"/>
       <c r="P131" s="9"/>
     </row>
-    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>13</v>
       </c>
@@ -4701,7 +4705,7 @@
       </c>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="str">
         <f>B122</f>
         <v>hydrogen distribution pipeline installation</v>
@@ -4728,7 +4732,7 @@
       <c r="O133" s="9"/>
       <c r="P133" s="9"/>
     </row>
-    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>76</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>0.79670949487272646</v>
       </c>
     </row>
-    <row r="135" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>78</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>22800</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>22</v>
@@ -4903,7 +4907,7 @@
         <v>0.71779376269979156</v>
       </c>
     </row>
-    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>80</v>
       </c>
@@ -4911,7 +4915,7 @@
         <v>1201.7149000000002</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>82</v>
@@ -4958,7 +4962,7 @@
         <v>0.79670949487272646</v>
       </c>
     </row>
-    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J138"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
@@ -4969,7 +4973,7 @@
       <c r="Q138"/>
       <c r="R138"/>
     </row>
-    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>0</v>
       </c>
@@ -4983,7 +4987,7 @@
       <c r="O139" s="9"/>
       <c r="P139" s="9"/>
     </row>
-    <row r="140" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>1</v>
       </c>
@@ -4997,7 +5001,7 @@
       <c r="O140" s="9"/>
       <c r="P140" s="9"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>175</v>
       </c>
@@ -5005,7 +5009,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>3</v>
       </c>
@@ -5019,7 +5023,7 @@
       <c r="O142" s="9"/>
       <c r="P142" s="9"/>
     </row>
-    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>4</v>
       </c>
@@ -5033,7 +5037,7 @@
       <c r="O143" s="9"/>
       <c r="P143" s="9"/>
     </row>
-    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>5</v>
       </c>
@@ -5047,7 +5051,7 @@
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
     </row>
-    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>7</v>
       </c>
@@ -5061,7 +5065,7 @@
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
     </row>
-    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>10</v>
       </c>
@@ -5075,7 +5079,7 @@
       <c r="O146" s="9"/>
       <c r="P146" s="9"/>
     </row>
-    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>8</v>
       </c>
@@ -5089,7 +5093,7 @@
       <c r="O147" s="9"/>
       <c r="P147" s="9"/>
     </row>
-    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>12</v>
       </c>
@@ -5100,7 +5104,7 @@
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
     </row>
-    <row r="149" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>13</v>
       </c>
@@ -5160,7 +5164,7 @@
       </c>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="str">
         <f>B139</f>
         <v>treatment of hydrogen distribution pipeline</v>
@@ -5188,7 +5192,7 @@
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
     </row>
-    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>66</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>-3958.9524000000001</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>22</v>
@@ -5256,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>231</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>-27.324000000000002</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>22</v>
@@ -5314,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
@@ -5322,7 +5326,7 @@
       <c r="O153" s="9"/>
       <c r="P153" s="9"/>
     </row>
-    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>0</v>
       </c>
@@ -5336,7 +5340,7 @@
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
     </row>
-    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>1</v>
       </c>
@@ -5350,7 +5354,7 @@
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>175</v>
       </c>
@@ -5358,7 +5362,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>3</v>
       </c>
@@ -5372,7 +5376,7 @@
       <c r="O157" s="9"/>
       <c r="P157" s="9"/>
     </row>
-    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>4</v>
       </c>
@@ -5386,7 +5390,7 @@
       <c r="O158" s="9"/>
       <c r="P158" s="9"/>
     </row>
-    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>5</v>
       </c>
@@ -5400,7 +5404,7 @@
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
     </row>
-    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>7</v>
       </c>
@@ -5414,7 +5418,7 @@
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
     </row>
-    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>10</v>
       </c>
@@ -5428,7 +5432,7 @@
       <c r="O161" s="9"/>
       <c r="P161" s="9"/>
     </row>
-    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>8</v>
       </c>
@@ -5442,7 +5446,7 @@
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
     </row>
-    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>12</v>
       </c>
@@ -5453,7 +5457,7 @@
       <c r="O163" s="9"/>
       <c r="P163" s="9"/>
     </row>
-    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>13</v>
       </c>
@@ -5513,7 +5517,7 @@
       </c>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="str">
         <f>B154</f>
         <v>hydrogen transmission pipeline construction</v>
@@ -5540,7 +5544,7 @@
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
     </row>
-    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>217</v>
       </c>
@@ -5548,7 +5552,7 @@
         <v>0.2</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>198</v>
@@ -5605,7 +5609,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>220</v>
       </c>
@@ -5660,7 +5664,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>222</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>223</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>79</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>225</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>20</v>
       </c>
@@ -5935,7 +5939,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="173" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J173"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
@@ -5946,7 +5950,7 @@
       <c r="Q173"/>
       <c r="R173"/>
     </row>
-    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>0</v>
       </c>
@@ -5960,7 +5964,7 @@
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
     </row>
-    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>1</v>
       </c>
@@ -5974,7 +5978,7 @@
       <c r="O175" s="9"/>
       <c r="P175" s="9"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -5982,7 +5986,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>3</v>
       </c>
@@ -5996,7 +6000,7 @@
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
     </row>
-    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>4</v>
       </c>
@@ -6010,7 +6014,7 @@
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
     </row>
-    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
         <v>5</v>
       </c>
@@ -6024,7 +6028,7 @@
       <c r="O179" s="9"/>
       <c r="P179" s="9"/>
     </row>
-    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
         <v>7</v>
       </c>
@@ -6038,7 +6042,7 @@
       <c r="O180" s="9"/>
       <c r="P180" s="9"/>
     </row>
-    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>10</v>
       </c>
@@ -6052,7 +6056,7 @@
       <c r="O181" s="9"/>
       <c r="P181" s="9"/>
     </row>
-    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>8</v>
       </c>
@@ -6066,7 +6070,7 @@
       <c r="O182" s="9"/>
       <c r="P182" s="9"/>
     </row>
-    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>12</v>
       </c>
@@ -6077,7 +6081,7 @@
       <c r="O183" s="9"/>
       <c r="P183" s="9"/>
     </row>
-    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>13</v>
       </c>
@@ -6137,7 +6141,7 @@
       </c>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="str">
         <f>B174</f>
         <v>hydrogen transmission pipeline installation</v>
@@ -6164,7 +6168,7 @@
       <c r="O185" s="9"/>
       <c r="P185" s="9"/>
     </row>
-    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>76</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>0.79670949487272646</v>
       </c>
     </row>
-    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>78</v>
       </c>
@@ -6292,7 +6296,7 @@
         <v>2280000</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>22</v>
@@ -6339,7 +6343,7 @@
         <v>0.71779376269979156</v>
       </c>
     </row>
-    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>80</v>
       </c>
@@ -6347,7 +6351,7 @@
         <v>120171.49</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>82</v>
@@ -6394,7 +6398,7 @@
         <v>0.79670949487272646</v>
       </c>
     </row>
-    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="J190"/>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
@@ -6405,7 +6409,7 @@
       <c r="Q190"/>
       <c r="R190"/>
     </row>
-    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>0</v>
       </c>
@@ -6419,7 +6423,7 @@
       <c r="O191" s="9"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>1</v>
       </c>
@@ -6433,7 +6437,7 @@
       <c r="O192" s="9"/>
       <c r="P192" s="9"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>175</v>
       </c>
@@ -6441,7 +6445,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>3</v>
       </c>
@@ -6455,7 +6459,7 @@
       <c r="O194" s="9"/>
       <c r="P194" s="9"/>
     </row>
-    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>4</v>
       </c>
@@ -6469,7 +6473,7 @@
       <c r="O195" s="9"/>
       <c r="P195" s="9"/>
     </row>
-    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>5</v>
       </c>
@@ -6483,7 +6487,7 @@
       <c r="O196" s="9"/>
       <c r="P196" s="9"/>
     </row>
-    <row r="197" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>7</v>
       </c>
@@ -6497,7 +6501,7 @@
       <c r="O197" s="9"/>
       <c r="P197" s="9"/>
     </row>
-    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>10</v>
       </c>
@@ -6511,7 +6515,7 @@
       <c r="O198" s="9"/>
       <c r="P198" s="9"/>
     </row>
-    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>8</v>
       </c>
@@ -6525,7 +6529,7 @@
       <c r="O199" s="9"/>
       <c r="P199" s="9"/>
     </row>
-    <row r="200" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>12</v>
       </c>
@@ -6536,7 +6540,7 @@
       <c r="O200" s="9"/>
       <c r="P200" s="9"/>
     </row>
-    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>13</v>
       </c>
@@ -6596,7 +6600,7 @@
       </c>
       <c r="T201" s="1"/>
     </row>
-    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="str">
         <f>B191</f>
         <v>treatment of hydrogen transmission pipeline</v>
@@ -6624,7 +6628,7 @@
       <c r="O202" s="9"/>
       <c r="P202" s="9"/>
     </row>
-    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>66</v>
       </c>
@@ -6632,7 +6636,7 @@
         <v>-395895.24</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>22</v>
@@ -6692,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>231</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K205" s="9"/>
       <c r="L205" s="9"/>
       <c r="M205" s="9"/>
@@ -6758,7 +6762,7 @@
       <c r="O205" s="9"/>
       <c r="P205" s="9"/>
     </row>
-    <row r="206" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>0</v>
       </c>
@@ -6772,7 +6776,7 @@
       <c r="O206" s="9"/>
       <c r="P206" s="9"/>
     </row>
-    <row r="207" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>1</v>
       </c>
@@ -6786,7 +6790,7 @@
       <c r="O207" s="9"/>
       <c r="P207" s="9"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>175</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>3</v>
       </c>
@@ -6808,7 +6812,7 @@
       <c r="O209" s="9"/>
       <c r="P209" s="9"/>
     </row>
-    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>4</v>
       </c>
@@ -6822,7 +6826,7 @@
       <c r="O210" s="9"/>
       <c r="P210" s="9"/>
     </row>
-    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>5</v>
       </c>
@@ -6836,7 +6840,7 @@
       <c r="O211" s="9"/>
       <c r="P211" s="9"/>
     </row>
-    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>7</v>
       </c>
@@ -6850,7 +6854,7 @@
       <c r="O212" s="9"/>
       <c r="P212" s="9"/>
     </row>
-    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>10</v>
       </c>
@@ -6864,7 +6868,7 @@
       <c r="O213" s="9"/>
       <c r="P213" s="9"/>
     </row>
-    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
         <v>8</v>
       </c>
@@ -6878,7 +6882,7 @@
       <c r="O214" s="9"/>
       <c r="P214" s="9"/>
     </row>
-    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>12</v>
       </c>
@@ -6889,7 +6893,7 @@
       <c r="O215" s="9"/>
       <c r="P215" s="9"/>
     </row>
-    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>13</v>
       </c>
@@ -6949,7 +6953,7 @@
       </c>
       <c r="T216" s="1"/>
     </row>
-    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
         <v>79</v>
       </c>
@@ -6975,7 +6979,7 @@
       <c r="O217" s="9"/>
       <c r="P217" s="9"/>
     </row>
-    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>166</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>162</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>164</v>
       </c>
@@ -7150,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>84</v>
       </c>
@@ -7202,7 +7206,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
         <v>235</v>
       </c>
@@ -7254,7 +7258,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>87</v>
       </c>
@@ -7306,7 +7310,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>89</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="225" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
         <v>91</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="226" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>236</v>
       </c>
@@ -7462,7 +7466,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="227" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>96</v>
       </c>
@@ -7514,7 +7518,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="228" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>98</v>
       </c>
@@ -7566,7 +7570,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="229" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>237</v>
       </c>
@@ -7618,7 +7622,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="230" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>238</v>
       </c>
@@ -7670,7 +7674,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="231" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>101</v>
       </c>
@@ -7722,7 +7726,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="232" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>170</v>
       </c>
@@ -7774,7 +7778,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="233" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
         <v>58</v>
       </c>
@@ -7826,7 +7830,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="234" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>103</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="235" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>240</v>
       </c>
@@ -7924,7 +7928,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="236" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>106</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="237" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
         <v>241</v>
       </c>
@@ -8022,7 +8026,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="238" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>108</v>
       </c>
@@ -8071,7 +8075,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="239" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>109</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>110</v>
       </c>
@@ -8169,7 +8173,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
         <v>242</v>
       </c>
@@ -8218,7 +8222,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="242" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>243</v>
       </c>
@@ -8267,7 +8271,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="243" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
         <v>111</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="244" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>244</v>
       </c>
@@ -8365,7 +8369,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="245" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
         <v>245</v>
       </c>
@@ -8414,7 +8418,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="246" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
         <v>245</v>
       </c>
@@ -8463,7 +8467,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="247" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
         <v>246</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="248" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
         <v>246</v>
       </c>
@@ -8561,7 +8565,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="249" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
         <v>247</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="250" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>112</v>
       </c>
@@ -8659,7 +8663,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="251" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
         <v>113</v>
       </c>
@@ -8708,7 +8712,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="252" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>114</v>
       </c>
@@ -8757,7 +8761,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="253" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
         <v>115</v>
       </c>
@@ -8806,7 +8810,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="254" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>248</v>
       </c>
@@ -8855,7 +8859,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="255" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
         <v>248</v>
       </c>
@@ -8904,7 +8908,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="256" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K256" s="9"/>
       <c r="L256" s="9"/>
       <c r="M256" s="9"/>
@@ -8912,7 +8916,7 @@
       <c r="O256" s="9"/>
       <c r="P256" s="9"/>
     </row>
-    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>0</v>
       </c>
@@ -8926,7 +8930,7 @@
       <c r="O257" s="9"/>
       <c r="P257" s="9"/>
     </row>
-    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
         <v>1</v>
       </c>
@@ -8940,7 +8944,7 @@
       <c r="O258" s="9"/>
       <c r="P258" s="9"/>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>175</v>
       </c>
@@ -8948,7 +8952,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="260" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
         <v>3</v>
       </c>
@@ -8962,7 +8966,7 @@
       <c r="O260" s="9"/>
       <c r="P260" s="9"/>
     </row>
-    <row r="261" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
         <v>4</v>
       </c>
@@ -8976,7 +8980,7 @@
       <c r="O261" s="9"/>
       <c r="P261" s="9"/>
     </row>
-    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
         <v>5</v>
       </c>
@@ -8990,7 +8994,7 @@
       <c r="O262" s="9"/>
       <c r="P262" s="9"/>
     </row>
-    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
         <v>7</v>
       </c>
@@ -9004,7 +9008,7 @@
       <c r="O263" s="9"/>
       <c r="P263" s="9"/>
     </row>
-    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
         <v>10</v>
       </c>
@@ -9018,7 +9022,7 @@
       <c r="O264" s="9"/>
       <c r="P264" s="9"/>
     </row>
-    <row r="265" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
         <v>8</v>
       </c>
@@ -9032,7 +9036,7 @@
       <c r="O265" s="9"/>
       <c r="P265" s="9"/>
     </row>
-    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>12</v>
       </c>
@@ -9043,7 +9047,7 @@
       <c r="O266" s="9"/>
       <c r="P266" s="9"/>
     </row>
-    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>13</v>
       </c>
@@ -9103,7 +9107,7 @@
       </c>
       <c r="T267" s="1"/>
     </row>
-    <row r="268" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="str">
         <f>B257</f>
         <v>compressor assembly for transmission hydrogen pipeline</v>
@@ -9133,7 +9137,7 @@
       <c r="O268" s="9"/>
       <c r="P268" s="9"/>
     </row>
-    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
         <v>217</v>
       </c>
@@ -9141,7 +9145,7 @@
         <v>0.2</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D269" s="8" t="s">
         <v>198</v>
@@ -9195,7 +9199,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="270" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
         <v>252</v>
       </c>
@@ -9247,7 +9251,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
         <v>58</v>
       </c>
@@ -9299,7 +9303,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
         <v>254</v>
       </c>
@@ -9351,7 +9355,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="273" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
         <v>256</v>
       </c>
@@ -9403,7 +9407,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="274" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>258</v>
       </c>
@@ -9455,7 +9459,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="275" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
         <v>260</v>
       </c>
@@ -9507,7 +9511,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="276" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
         <v>262</v>
       </c>
@@ -9559,7 +9563,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="277" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
         <v>264</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="278" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
         <v>266</v>
       </c>
@@ -9663,7 +9667,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="279" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
         <v>268</v>
       </c>
@@ -9715,7 +9719,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="280" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
         <v>80</v>
       </c>
@@ -9723,7 +9727,7 @@
         <v>35266.71</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D280" s="8" t="s">
         <v>82</v>
@@ -9767,7 +9771,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="281" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
         <v>270</v>
       </c>
@@ -9775,7 +9779,7 @@
         <v>-46740.49</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D281" s="8" t="s">
         <v>22</v>
@@ -9822,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
         <v>272</v>
       </c>
@@ -9830,7 +9834,7 @@
         <v>-21.5</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>22</v>
@@ -9877,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
         <v>205</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="284" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
         <v>273</v>
       </c>
@@ -9975,7 +9979,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
         <v>207</v>
       </c>
@@ -10024,7 +10028,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="286" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
         <v>207</v>
       </c>
@@ -10073,7 +10077,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="287" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B287" s="12"/>
       <c r="K287" s="9"/>
       <c r="L287" s="9"/>
@@ -10082,7 +10086,7 @@
       <c r="O287" s="9"/>
       <c r="P287" s="9"/>
     </row>
-    <row r="288" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>0</v>
       </c>
@@ -10090,7 +10094,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1</v>
       </c>
@@ -10098,7 +10102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>3</v>
       </c>
@@ -10106,7 +10110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -10114,7 +10118,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -10122,7 +10126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -10130,7 +10134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -10138,7 +10142,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -10146,12 +10150,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -10174,7 +10178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>156</v>
       </c>
@@ -10197,7 +10201,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>37</v>
       </c>
@@ -10220,7 +10224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>66</v>
       </c>
@@ -10243,7 +10247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>69</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>20</v>
       </c>
@@ -10289,7 +10293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>71</v>
       </c>
@@ -10312,7 +10316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>73</v>
       </c>
@@ -10335,7 +10339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>75</v>
       </c>
@@ -10358,7 +10362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>76</v>
       </c>
@@ -10381,7 +10385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>78</v>
       </c>
@@ -10404,7 +10408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>79</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>80</v>
       </c>
@@ -10450,7 +10454,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>170</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -10497,7 +10501,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="313" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>0</v>
       </c>
@@ -10505,7 +10510,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1</v>
       </c>
@@ -10513,7 +10518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -10521,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -10529,7 +10534,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -10537,7 +10542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -10545,7 +10550,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>10</v>
       </c>
@@ -10553,7 +10558,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -10561,12 +10566,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>13</v>
       </c>
@@ -10589,7 +10594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>157</v>
       </c>
@@ -10612,7 +10617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>37</v>
       </c>
@@ -10635,7 +10640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>66</v>
       </c>
@@ -10658,7 +10663,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>69</v>
       </c>
@@ -10681,7 +10686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>20</v>
       </c>
@@ -10704,7 +10709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>71</v>
       </c>
@@ -10727,7 +10732,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>73</v>
       </c>
@@ -10750,7 +10755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>75</v>
       </c>
@@ -10773,7 +10778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>76</v>
       </c>
@@ -10796,7 +10801,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>78</v>
       </c>
@@ -10819,7 +10824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>79</v>
       </c>
@@ -10842,7 +10847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>80</v>
       </c>
@@ -10865,7 +10870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>170</v>
       </c>
@@ -10888,7 +10893,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>58</v>
       </c>
@@ -10912,7 +10917,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="338" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>0</v>
       </c>
@@ -10920,7 +10926,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1</v>
       </c>
@@ -10928,7 +10934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>3</v>
       </c>
@@ -10936,7 +10942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -10944,7 +10950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -10952,7 +10958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -10960,7 +10966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>10</v>
       </c>
@@ -10968,7 +10974,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -10976,12 +10982,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -11007,7 +11013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>120</v>
       </c>
@@ -11030,7 +11036,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>128</v>
       </c>
@@ -11053,7 +11059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>125</v>
       </c>
@@ -11076,7 +11082,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>123</v>
       </c>
@@ -11099,7 +11105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>132</v>
       </c>
@@ -11122,7 +11128,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>58</v>
       </c>
@@ -11145,7 +11151,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>0</v>
       </c>
@@ -11153,7 +11160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1</v>
       </c>
@@ -11161,7 +11168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>3</v>
       </c>
@@ -11169,7 +11176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -11177,7 +11184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -11185,7 +11192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -11193,7 +11200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>10</v>
       </c>
@@ -11201,7 +11208,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -11209,12 +11216,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -11240,7 +11247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>130</v>
       </c>
@@ -11263,7 +11270,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>128</v>
       </c>
@@ -11286,7 +11293,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>125</v>
       </c>
@@ -11309,7 +11316,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>123</v>
       </c>
@@ -11332,7 +11339,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>132</v>
       </c>
@@ -11355,7 +11362,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>58</v>
       </c>
@@ -11378,7 +11385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>94</v>
       </c>
@@ -11402,7 +11409,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="373" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>0</v>
       </c>
@@ -11410,7 +11418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1</v>
       </c>
@@ -11418,7 +11426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>3</v>
       </c>
@@ -11426,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -11434,7 +11442,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -11442,7 +11450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -11450,7 +11458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>10</v>
       </c>
@@ -11458,7 +11466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -11466,12 +11474,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -11497,7 +11505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>132</v>
       </c>
@@ -11520,7 +11528,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>134</v>
       </c>
@@ -11543,7 +11551,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>136</v>
       </c>
@@ -11566,7 +11574,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>138</v>
       </c>
@@ -11589,7 +11597,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>141</v>
       </c>
@@ -11612,7 +11620,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>58</v>
       </c>
@@ -11635,7 +11643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>94</v>
       </c>
@@ -11658,7 +11666,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>170</v>
       </c>
@@ -11681,7 +11689,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="392" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>0</v>
       </c>
@@ -11689,7 +11698,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1</v>
       </c>
@@ -11697,7 +11706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>3</v>
       </c>
@@ -11705,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -11713,7 +11722,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -11721,7 +11730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -11729,7 +11738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>10</v>
       </c>
@@ -11737,7 +11746,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -11745,12 +11754,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>13</v>
       </c>
@@ -11776,7 +11785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>146</v>
       </c>
@@ -11799,7 +11808,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>58</v>
       </c>
@@ -11822,7 +11831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>143</v>
       </c>
@@ -11845,7 +11854,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="406" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>0</v>
       </c>
@@ -11853,7 +11863,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1</v>
       </c>
@@ -11861,7 +11871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>3</v>
       </c>
@@ -11869,7 +11879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>4</v>
       </c>
@@ -11877,7 +11887,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -11885,7 +11895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -11893,7 +11903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>10</v>
       </c>
@@ -11901,7 +11911,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -11909,12 +11919,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>13</v>
       </c>
@@ -11940,7 +11950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>147</v>
       </c>
@@ -11963,7 +11973,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>58</v>
       </c>
@@ -11986,7 +11996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>146</v>
       </c>
@@ -12009,7 +12019,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="420" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>0</v>
       </c>
@@ -12017,7 +12028,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1</v>
       </c>
@@ -12025,7 +12036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>3</v>
       </c>
@@ -12033,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -12041,7 +12052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -12049,7 +12060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -12057,7 +12068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>10</v>
       </c>
@@ -12065,7 +12076,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>8</v>
       </c>
@@ -12073,12 +12084,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -12104,7 +12115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>150</v>
       </c>
@@ -12127,7 +12138,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>58</v>
       </c>
@@ -12150,7 +12161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>154</v>
       </c>
@@ -12173,7 +12184,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="434" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>0</v>
       </c>
@@ -12181,7 +12193,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1</v>
       </c>
@@ -12189,7 +12201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>3</v>
       </c>
@@ -12197,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>4</v>
       </c>
@@ -12205,7 +12217,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>5</v>
       </c>
@@ -12213,7 +12225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -12221,7 +12233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>10</v>
       </c>
@@ -12229,7 +12241,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -12237,12 +12249,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -12265,7 +12277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>158</v>
       </c>
@@ -12288,7 +12300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>58</v>
       </c>
@@ -12312,7 +12324,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="447" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>0</v>
       </c>
@@ -12320,7 +12333,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1</v>
       </c>
@@ -12328,7 +12341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>3</v>
       </c>
@@ -12336,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -12344,7 +12357,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>5</v>
       </c>
@@ -12352,7 +12365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -12360,7 +12373,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>10</v>
       </c>
@@ -12368,7 +12381,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -12376,12 +12389,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>13</v>
       </c>
@@ -12404,7 +12417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>160</v>
       </c>
@@ -12427,7 +12440,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>58</v>
       </c>
@@ -12452,7 +12465,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I458" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I458" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="market for sand"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5706C-51BD-4948-A10A-5B818D7588A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551A7524-F119-4B43-8A3D-4105E03BD70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1760" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="1600" windowWidth="27820" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,19 +769,10 @@
 HDPE layer [mm]: 3</t>
   </si>
   <si>
-    <t>market for chemical, inorganic</t>
-  </si>
-  <si>
     <t>market for heat, from steam, in chemical industry</t>
   </si>
   <si>
     <t>market for rolling mill</t>
-  </si>
-  <si>
-    <t>market for soda ash, light</t>
-  </si>
-  <si>
-    <t>soda ash, light</t>
   </si>
   <si>
     <t>Arsenic ion</t>
@@ -889,6 +880,15 @@
   </si>
   <si>
     <t>Water, cooling, unspecified natural origin</t>
+  </si>
+  <si>
+    <t>market for chemicals, inorganic</t>
+  </si>
+  <si>
+    <t>market for soda ash, light, crystalline, heptahydrate</t>
+  </si>
+  <si>
+    <t>soda ash, light, crystalline, heptahydrate</t>
   </si>
 </sst>
 </file>
@@ -1276,11 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C459" sqref="C459"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="J219" sqref="J219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1299,8 +1298,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1316,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1330,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1364,12 +1362,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -1421,7 +1419,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1444,7 +1442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1467,7 +1465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1513,7 +1511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1536,7 +1534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1559,7 +1557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1582,7 +1580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1628,7 +1626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1651,7 +1649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1698,7 +1696,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1722,7 +1720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>118</v>
       </c>
@@ -1745,8 +1743,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1751,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1762,7 +1759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1775,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1810,12 +1807,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1844,7 +1841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -1867,7 +1864,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -1890,7 +1887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -1913,7 +1910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1959,7 +1956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -2005,7 +2002,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -2028,7 +2025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2074,8 +2071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -2089,7 +2085,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>1</v>
       </c>
@@ -2103,7 +2099,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -2111,7 +2107,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>3</v>
       </c>
@@ -2125,7 +2121,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>4</v>
       </c>
@@ -2139,7 +2135,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2149,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>7</v>
       </c>
@@ -2167,7 +2163,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>10</v>
       </c>
@@ -2181,7 +2177,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>8</v>
       </c>
@@ -2195,7 +2191,7 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2202,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
     </row>
-    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>13</v>
       </c>
@@ -2266,7 +2262,7 @@
       </c>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>174</v>
       </c>
@@ -2293,7 +2289,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>189</v>
       </c>
@@ -2355,7 +2351,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>190</v>
       </c>
@@ -2408,7 +2404,7 @@
       </c>
       <c r="T63"/>
     </row>
-    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>191</v>
       </c>
@@ -2464,7 +2460,7 @@
       </c>
       <c r="T64"/>
     </row>
-    <row r="65" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>193</v>
       </c>
@@ -2520,7 +2516,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>196</v>
       </c>
@@ -2576,7 +2572,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>197</v>
       </c>
@@ -2626,7 +2622,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>200</v>
       </c>
@@ -2676,7 +2672,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>201</v>
       </c>
@@ -2726,7 +2722,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>202</v>
       </c>
@@ -2776,7 +2772,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>203</v>
       </c>
@@ -2826,7 +2822,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>205</v>
       </c>
@@ -2876,7 +2872,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>207</v>
       </c>
@@ -2926,7 +2922,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>207</v>
       </c>
@@ -2976,7 +2972,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="J75"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -2987,7 +2983,7 @@
       <c r="Q75"/>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +2997,7 @@
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
     </row>
-    <row r="77" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>1</v>
       </c>
@@ -3015,7 +3011,7 @@
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>175</v>
       </c>
@@ -3023,7 +3019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>3</v>
       </c>
@@ -3037,7 +3033,7 @@
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
     </row>
-    <row r="80" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>4</v>
       </c>
@@ -3051,7 +3047,7 @@
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
     </row>
-    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>5</v>
       </c>
@@ -3065,7 +3061,7 @@
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
     </row>
-    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>7</v>
       </c>
@@ -3079,7 +3075,7 @@
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
     </row>
-    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>10</v>
       </c>
@@ -3093,7 +3089,7 @@
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
     </row>
-    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>8</v>
       </c>
@@ -3107,7 +3103,7 @@
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
     </row>
-    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3114,7 @@
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
     </row>
-    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>13</v>
       </c>
@@ -3178,7 +3174,7 @@
       </c>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="str">
         <f>B76</f>
         <v>pipeline, hydrogen, high pressure transmission network</v>
@@ -3206,7 +3202,7 @@
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
     </row>
-    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>211</v>
       </c>
@@ -3268,7 +3264,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>212</v>
       </c>
@@ -3321,7 +3317,7 @@
       </c>
       <c r="T89"/>
     </row>
-    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>213</v>
       </c>
@@ -3377,7 +3373,7 @@
       </c>
       <c r="T90"/>
     </row>
-    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>193</v>
       </c>
@@ -3432,7 +3428,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>196</v>
       </c>
@@ -3487,7 +3483,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>197</v>
       </c>
@@ -3536,7 +3532,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>200</v>
       </c>
@@ -3585,7 +3581,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>201</v>
       </c>
@@ -3634,7 +3630,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>202</v>
       </c>
@@ -3683,7 +3679,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>203</v>
       </c>
@@ -3732,7 +3728,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>205</v>
       </c>
@@ -3781,7 +3777,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>207</v>
       </c>
@@ -3830,7 +3826,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>207</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="J101"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
@@ -3890,7 +3886,7 @@
       <c r="Q101"/>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -3904,7 +3900,7 @@
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
     </row>
-    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>1</v>
       </c>
@@ -3918,7 +3914,7 @@
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -3926,7 +3922,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>3</v>
       </c>
@@ -3940,7 +3936,7 @@
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
     </row>
-    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>4</v>
       </c>
@@ -3954,7 +3950,7 @@
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
     </row>
-    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>5</v>
       </c>
@@ -3968,7 +3964,7 @@
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
     </row>
-    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>7</v>
       </c>
@@ -3982,7 +3978,7 @@
       <c r="O108" s="9"/>
       <c r="P108" s="9"/>
     </row>
-    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>10</v>
       </c>
@@ -3996,7 +3992,7 @@
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
     </row>
-    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>8</v>
       </c>
@@ -4010,7 +4006,7 @@
       <c r="O110" s="9"/>
       <c r="P110" s="9"/>
     </row>
-    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>12</v>
       </c>
@@ -4021,7 +4017,7 @@
       <c r="O111" s="9"/>
       <c r="P111" s="9"/>
     </row>
-    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>13</v>
       </c>
@@ -4081,7 +4077,7 @@
       </c>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="str">
         <f>B102</f>
         <v>hydrogen distribution pipeline construction</v>
@@ -4108,7 +4104,7 @@
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
     </row>
-    <row r="114" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>217</v>
       </c>
@@ -4173,7 +4169,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>220</v>
       </c>
@@ -4228,7 +4224,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>222</v>
       </c>
@@ -4283,7 +4279,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="117" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>223</v>
       </c>
@@ -4338,7 +4334,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>79</v>
       </c>
@@ -4393,7 +4389,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="119" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>225</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>20</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="J121"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
@@ -4514,7 +4510,7 @@
       <c r="Q121"/>
       <c r="R121"/>
     </row>
-    <row r="122" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>0</v>
       </c>
@@ -4528,7 +4524,7 @@
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
     </row>
-    <row r="123" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>1</v>
       </c>
@@ -4542,7 +4538,7 @@
       <c r="O123" s="9"/>
       <c r="P123" s="9"/>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>175</v>
       </c>
@@ -4550,7 +4546,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="125" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>3</v>
       </c>
@@ -4564,7 +4560,7 @@
       <c r="O125" s="9"/>
       <c r="P125" s="9"/>
     </row>
-    <row r="126" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4574,7 @@
       <c r="O126" s="9"/>
       <c r="P126" s="9"/>
     </row>
-    <row r="127" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>5</v>
       </c>
@@ -4592,7 +4588,7 @@
       <c r="O127" s="9"/>
       <c r="P127" s="9"/>
     </row>
-    <row r="128" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>7</v>
       </c>
@@ -4606,7 +4602,7 @@
       <c r="O128" s="9"/>
       <c r="P128" s="9"/>
     </row>
-    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>10</v>
       </c>
@@ -4620,7 +4616,7 @@
       <c r="O129" s="9"/>
       <c r="P129" s="9"/>
     </row>
-    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>8</v>
       </c>
@@ -4634,7 +4630,7 @@
       <c r="O130" s="9"/>
       <c r="P130" s="9"/>
     </row>
-    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>12</v>
       </c>
@@ -4645,7 +4641,7 @@
       <c r="O131" s="9"/>
       <c r="P131" s="9"/>
     </row>
-    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>13</v>
       </c>
@@ -4705,7 +4701,7 @@
       </c>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="str">
         <f>B122</f>
         <v>hydrogen distribution pipeline installation</v>
@@ -4732,7 +4728,7 @@
       <c r="O133" s="9"/>
       <c r="P133" s="9"/>
     </row>
-    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>76</v>
       </c>
@@ -4797,7 +4793,7 @@
         <v>0.79670949487272646</v>
       </c>
     </row>
-    <row r="135" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>78</v>
       </c>
@@ -4907,7 +4903,7 @@
         <v>0.71779376269979156</v>
       </c>
     </row>
-    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>80</v>
       </c>
@@ -4962,7 +4958,7 @@
         <v>0.79670949487272646</v>
       </c>
     </row>
-    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="J138"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
@@ -4973,7 +4969,7 @@
       <c r="Q138"/>
       <c r="R138"/>
     </row>
-    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>0</v>
       </c>
@@ -4987,7 +4983,7 @@
       <c r="O139" s="9"/>
       <c r="P139" s="9"/>
     </row>
-    <row r="140" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>1</v>
       </c>
@@ -5001,7 +4997,7 @@
       <c r="O140" s="9"/>
       <c r="P140" s="9"/>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>175</v>
       </c>
@@ -5009,7 +5005,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>3</v>
       </c>
@@ -5023,7 +5019,7 @@
       <c r="O142" s="9"/>
       <c r="P142" s="9"/>
     </row>
-    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>4</v>
       </c>
@@ -5037,7 +5033,7 @@
       <c r="O143" s="9"/>
       <c r="P143" s="9"/>
     </row>
-    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +5047,7 @@
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
     </row>
-    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>7</v>
       </c>
@@ -5065,7 +5061,7 @@
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
     </row>
-    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>10</v>
       </c>
@@ -5079,7 +5075,7 @@
       <c r="O146" s="9"/>
       <c r="P146" s="9"/>
     </row>
-    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>8</v>
       </c>
@@ -5093,7 +5089,7 @@
       <c r="O147" s="9"/>
       <c r="P147" s="9"/>
     </row>
-    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>12</v>
       </c>
@@ -5104,7 +5100,7 @@
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
     </row>
-    <row r="149" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>13</v>
       </c>
@@ -5164,7 +5160,7 @@
       </c>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="str">
         <f>B139</f>
         <v>treatment of hydrogen distribution pipeline</v>
@@ -5192,7 +5188,7 @@
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
     </row>
-    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>66</v>
       </c>
@@ -5260,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>231</v>
       </c>
@@ -5318,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
@@ -5326,7 +5322,7 @@
       <c r="O153" s="9"/>
       <c r="P153" s="9"/>
     </row>
-    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>0</v>
       </c>
@@ -5340,7 +5336,7 @@
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
     </row>
-    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>1</v>
       </c>
@@ -5354,7 +5350,7 @@
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>175</v>
       </c>
@@ -5362,7 +5358,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>3</v>
       </c>
@@ -5376,7 +5372,7 @@
       <c r="O157" s="9"/>
       <c r="P157" s="9"/>
     </row>
-    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>4</v>
       </c>
@@ -5390,7 +5386,7 @@
       <c r="O158" s="9"/>
       <c r="P158" s="9"/>
     </row>
-    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>5</v>
       </c>
@@ -5404,7 +5400,7 @@
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
     </row>
-    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>7</v>
       </c>
@@ -5418,7 +5414,7 @@
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
     </row>
-    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>10</v>
       </c>
@@ -5432,7 +5428,7 @@
       <c r="O161" s="9"/>
       <c r="P161" s="9"/>
     </row>
-    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>8</v>
       </c>
@@ -5446,7 +5442,7 @@
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
     </row>
-    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>12</v>
       </c>
@@ -5457,7 +5453,7 @@
       <c r="O163" s="9"/>
       <c r="P163" s="9"/>
     </row>
-    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>13</v>
       </c>
@@ -5517,7 +5513,7 @@
       </c>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="str">
         <f>B154</f>
         <v>hydrogen transmission pipeline construction</v>
@@ -5544,7 +5540,7 @@
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
     </row>
-    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>217</v>
       </c>
@@ -5609,7 +5605,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>220</v>
       </c>
@@ -5664,7 +5660,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>222</v>
       </c>
@@ -5719,7 +5715,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>223</v>
       </c>
@@ -5774,7 +5770,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>79</v>
       </c>
@@ -5829,7 +5825,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>225</v>
       </c>
@@ -5884,7 +5880,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>20</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="173" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="J173"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
@@ -5950,7 +5946,7 @@
       <c r="Q173"/>
       <c r="R173"/>
     </row>
-    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>0</v>
       </c>
@@ -5964,7 +5960,7 @@
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
     </row>
-    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>1</v>
       </c>
@@ -5978,7 +5974,7 @@
       <c r="O175" s="9"/>
       <c r="P175" s="9"/>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -5986,7 +5982,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>3</v>
       </c>
@@ -6000,7 +5996,7 @@
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
     </row>
-    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>4</v>
       </c>
@@ -6014,7 +6010,7 @@
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
     </row>
-    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
         <v>5</v>
       </c>
@@ -6028,7 +6024,7 @@
       <c r="O179" s="9"/>
       <c r="P179" s="9"/>
     </row>
-    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
         <v>7</v>
       </c>
@@ -6042,7 +6038,7 @@
       <c r="O180" s="9"/>
       <c r="P180" s="9"/>
     </row>
-    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>10</v>
       </c>
@@ -6056,7 +6052,7 @@
       <c r="O181" s="9"/>
       <c r="P181" s="9"/>
     </row>
-    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>8</v>
       </c>
@@ -6070,7 +6066,7 @@
       <c r="O182" s="9"/>
       <c r="P182" s="9"/>
     </row>
-    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>12</v>
       </c>
@@ -6081,7 +6077,7 @@
       <c r="O183" s="9"/>
       <c r="P183" s="9"/>
     </row>
-    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>13</v>
       </c>
@@ -6141,7 +6137,7 @@
       </c>
       <c r="T184" s="1"/>
     </row>
-    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="str">
         <f>B174</f>
         <v>hydrogen transmission pipeline installation</v>
@@ -6168,7 +6164,7 @@
       <c r="O185" s="9"/>
       <c r="P185" s="9"/>
     </row>
-    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>76</v>
       </c>
@@ -6233,7 +6229,7 @@
         <v>0.79670949487272646</v>
       </c>
     </row>
-    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>78</v>
       </c>
@@ -6343,7 +6339,7 @@
         <v>0.71779376269979156</v>
       </c>
     </row>
-    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>80</v>
       </c>
@@ -6398,7 +6394,7 @@
         <v>0.79670949487272646</v>
       </c>
     </row>
-    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="J190"/>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
@@ -6409,7 +6405,7 @@
       <c r="Q190"/>
       <c r="R190"/>
     </row>
-    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>0</v>
       </c>
@@ -6423,7 +6419,7 @@
       <c r="O191" s="9"/>
       <c r="P191" s="9"/>
     </row>
-    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>1</v>
       </c>
@@ -6437,7 +6433,7 @@
       <c r="O192" s="9"/>
       <c r="P192" s="9"/>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>175</v>
       </c>
@@ -6445,7 +6441,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>3</v>
       </c>
@@ -6459,7 +6455,7 @@
       <c r="O194" s="9"/>
       <c r="P194" s="9"/>
     </row>
-    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>4</v>
       </c>
@@ -6473,7 +6469,7 @@
       <c r="O195" s="9"/>
       <c r="P195" s="9"/>
     </row>
-    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>5</v>
       </c>
@@ -6487,7 +6483,7 @@
       <c r="O196" s="9"/>
       <c r="P196" s="9"/>
     </row>
-    <row r="197" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>7</v>
       </c>
@@ -6501,7 +6497,7 @@
       <c r="O197" s="9"/>
       <c r="P197" s="9"/>
     </row>
-    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>10</v>
       </c>
@@ -6515,7 +6511,7 @@
       <c r="O198" s="9"/>
       <c r="P198" s="9"/>
     </row>
-    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>8</v>
       </c>
@@ -6529,7 +6525,7 @@
       <c r="O199" s="9"/>
       <c r="P199" s="9"/>
     </row>
-    <row r="200" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>12</v>
       </c>
@@ -6540,7 +6536,7 @@
       <c r="O200" s="9"/>
       <c r="P200" s="9"/>
     </row>
-    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>13</v>
       </c>
@@ -6600,7 +6596,7 @@
       </c>
       <c r="T201" s="1"/>
     </row>
-    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="str">
         <f>B191</f>
         <v>treatment of hydrogen transmission pipeline</v>
@@ -6628,7 +6624,7 @@
       <c r="O202" s="9"/>
       <c r="P202" s="9"/>
     </row>
-    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>66</v>
       </c>
@@ -6696,7 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>231</v>
       </c>
@@ -6754,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K205" s="9"/>
       <c r="L205" s="9"/>
       <c r="M205" s="9"/>
@@ -6762,7 +6758,7 @@
       <c r="O205" s="9"/>
       <c r="P205" s="9"/>
     </row>
-    <row r="206" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>0</v>
       </c>
@@ -6776,7 +6772,7 @@
       <c r="O206" s="9"/>
       <c r="P206" s="9"/>
     </row>
-    <row r="207" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>1</v>
       </c>
@@ -6790,7 +6786,7 @@
       <c r="O207" s="9"/>
       <c r="P207" s="9"/>
     </row>
-    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>175</v>
       </c>
@@ -6798,7 +6794,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>3</v>
       </c>
@@ -6812,7 +6808,7 @@
       <c r="O209" s="9"/>
       <c r="P209" s="9"/>
     </row>
-    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>4</v>
       </c>
@@ -6826,7 +6822,7 @@
       <c r="O210" s="9"/>
       <c r="P210" s="9"/>
     </row>
-    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>5</v>
       </c>
@@ -6840,7 +6836,7 @@
       <c r="O211" s="9"/>
       <c r="P211" s="9"/>
     </row>
-    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>7</v>
       </c>
@@ -6854,7 +6850,7 @@
       <c r="O212" s="9"/>
       <c r="P212" s="9"/>
     </row>
-    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>10</v>
       </c>
@@ -6868,7 +6864,7 @@
       <c r="O213" s="9"/>
       <c r="P213" s="9"/>
     </row>
-    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
         <v>8</v>
       </c>
@@ -6882,7 +6878,7 @@
       <c r="O214" s="9"/>
       <c r="P214" s="9"/>
     </row>
-    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>12</v>
       </c>
@@ -6893,7 +6889,7 @@
       <c r="O215" s="9"/>
       <c r="P215" s="9"/>
     </row>
-    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>13</v>
       </c>
@@ -6953,7 +6949,7 @@
       </c>
       <c r="T216" s="1"/>
     </row>
-    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
         <v>79</v>
       </c>
@@ -6979,7 +6975,7 @@
       <c r="O217" s="9"/>
       <c r="P217" s="9"/>
     </row>
-    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>166</v>
       </c>
@@ -7044,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>162</v>
       </c>
@@ -7099,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>164</v>
       </c>
@@ -7154,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>84</v>
       </c>
@@ -7206,9 +7202,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="B222" s="8">
         <v>1.5E-3</v>
@@ -7258,7 +7254,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>87</v>
       </c>
@@ -7310,7 +7306,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>89</v>
       </c>
@@ -7362,7 +7358,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="225" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
         <v>91</v>
       </c>
@@ -7414,9 +7410,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="226" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B226" s="8">
         <v>2.01E-2</v>
@@ -7466,7 +7462,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="227" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>96</v>
       </c>
@@ -7518,7 +7514,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="228" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>98</v>
       </c>
@@ -7570,9 +7566,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="229" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B229" s="15">
         <v>1.6300000000000001E-13</v>
@@ -7622,9 +7618,9 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="230" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="B230" s="8">
         <v>1</v>
@@ -7639,7 +7635,7 @@
         <v>23</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="I230" s="8">
         <v>2</v>
@@ -7674,7 +7670,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="231" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>101</v>
       </c>
@@ -7726,7 +7722,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="232" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>170</v>
       </c>
@@ -7778,7 +7774,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="233" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
         <v>58</v>
       </c>
@@ -7830,7 +7826,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="234" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>103</v>
       </c>
@@ -7879,9 +7875,9 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="235" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B235" s="8">
         <v>1.9000000000000002E-10</v>
@@ -7928,7 +7924,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="236" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>106</v>
       </c>
@@ -7977,9 +7973,9 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="237" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B237" s="15">
         <v>1.31E-9</v>
@@ -8026,7 +8022,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="238" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>108</v>
       </c>
@@ -8075,7 +8071,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="239" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>109</v>
       </c>
@@ -8124,7 +8120,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>110</v>
       </c>
@@ -8173,9 +8169,9 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B241" s="8">
         <v>1.5699999999999999E-4</v>
@@ -8222,9 +8218,9 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="242" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B242" s="8">
         <v>7.62E-3</v>
@@ -8271,7 +8267,7 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="243" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
         <v>111</v>
       </c>
@@ -8320,9 +8316,9 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="244" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B244" s="8">
         <v>1.8300000000000001E-5</v>
@@ -8369,9 +8365,9 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="245" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B245" s="8">
         <v>1.3999999999999999E-6</v>
@@ -8418,9 +8414,9 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="246" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B246" s="8">
         <v>5.6499999999999993E-6</v>
@@ -8467,9 +8463,9 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="247" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B247" s="15">
         <v>3.4000000000000003E-9</v>
@@ -8516,9 +8512,9 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="248" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B248" s="15">
         <v>1.51E-9</v>
@@ -8565,9 +8561,9 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="249" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B249" s="15">
         <v>9.9999999999999986E-10</v>
@@ -8614,7 +8610,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="250" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>112</v>
       </c>
@@ -8663,7 +8659,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="251" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
         <v>113</v>
       </c>
@@ -8712,7 +8708,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="252" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>114</v>
       </c>
@@ -8761,7 +8757,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="253" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
         <v>115</v>
       </c>
@@ -8810,9 +8806,9 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="254" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B254" s="15">
         <v>2.7500000000000001E-5</v>
@@ -8859,9 +8855,9 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="255" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B255" s="15">
         <v>1.9E-6</v>
@@ -8908,7 +8904,7 @@
         <v>0.93208283513358414</v>
       </c>
     </row>
-    <row r="256" spans="1:18" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K256" s="9"/>
       <c r="L256" s="9"/>
       <c r="M256" s="9"/>
@@ -8916,12 +8912,12 @@
       <c r="O256" s="9"/>
       <c r="P256" s="9"/>
     </row>
-    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K257" s="9"/>
       <c r="L257" s="9"/>
@@ -8930,7 +8926,7 @@
       <c r="O257" s="9"/>
       <c r="P257" s="9"/>
     </row>
-    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
         <v>1</v>
       </c>
@@ -8944,7 +8940,7 @@
       <c r="O258" s="9"/>
       <c r="P258" s="9"/>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>175</v>
       </c>
@@ -8952,7 +8948,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="260" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
         <v>3</v>
       </c>
@@ -8966,12 +8962,12 @@
       <c r="O260" s="9"/>
       <c r="P260" s="9"/>
     </row>
-    <row r="261" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K261" s="9"/>
       <c r="L261" s="9"/>
@@ -8980,7 +8976,7 @@
       <c r="O261" s="9"/>
       <c r="P261" s="9"/>
     </row>
-    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
         <v>5</v>
       </c>
@@ -8994,7 +8990,7 @@
       <c r="O262" s="9"/>
       <c r="P262" s="9"/>
     </row>
-    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
         <v>7</v>
       </c>
@@ -9008,12 +9004,12 @@
       <c r="O263" s="9"/>
       <c r="P263" s="9"/>
     </row>
-    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K264" s="9"/>
       <c r="L264" s="9"/>
@@ -9022,7 +9018,7 @@
       <c r="O264" s="9"/>
       <c r="P264" s="9"/>
     </row>
-    <row r="265" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
         <v>8</v>
       </c>
@@ -9036,7 +9032,7 @@
       <c r="O265" s="9"/>
       <c r="P265" s="9"/>
     </row>
-    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>12</v>
       </c>
@@ -9047,7 +9043,7 @@
       <c r="O266" s="9"/>
       <c r="P266" s="9"/>
     </row>
-    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>13</v>
       </c>
@@ -9107,7 +9103,7 @@
       </c>
       <c r="T267" s="1"/>
     </row>
-    <row r="268" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="str">
         <f>B257</f>
         <v>compressor assembly for transmission hydrogen pipeline</v>
@@ -9137,7 +9133,7 @@
       <c r="O268" s="9"/>
       <c r="P268" s="9"/>
     </row>
-    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
         <v>217</v>
       </c>
@@ -9199,9 +9195,9 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="270" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B270" s="12">
         <v>7204.07</v>
@@ -9216,7 +9212,7 @@
         <v>23</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I270" s="8">
         <v>2</v>
@@ -9251,7 +9247,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
         <v>58</v>
       </c>
@@ -9303,9 +9299,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B272" s="12">
         <v>106169.51</v>
@@ -9320,7 +9316,7 @@
         <v>23</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I272" s="8">
         <v>2</v>
@@ -9355,9 +9351,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="273" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B273" s="12">
         <v>21.5</v>
@@ -9372,7 +9368,7 @@
         <v>23</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I273" s="8">
         <v>2</v>
@@ -9407,9 +9403,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="274" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B274" s="17">
         <v>4.8600000000000002E-5</v>
@@ -9424,7 +9420,7 @@
         <v>23</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I274" s="8">
         <v>2</v>
@@ -9459,9 +9455,9 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="275" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B275" s="12">
         <v>4.1900000000000004</v>
@@ -9476,7 +9472,7 @@
         <v>23</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I275" s="8">
         <v>2</v>
@@ -9511,9 +9507,9 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="276" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B276" s="12">
         <v>22088.9</v>
@@ -9528,7 +9524,7 @@
         <v>23</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I276" s="8">
         <v>2</v>
@@ -9563,9 +9559,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="277" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B277" s="12">
         <v>69.75</v>
@@ -9580,7 +9576,7 @@
         <v>23</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I277" s="8">
         <v>2</v>
@@ -9615,9 +9611,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="278" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B278" s="12">
         <v>95397.05</v>
@@ -9632,7 +9628,7 @@
         <v>23</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I278" s="8">
         <v>2</v>
@@ -9667,9 +9663,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="279" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B279" s="12">
         <v>0.36</v>
@@ -9684,7 +9680,7 @@
         <v>23</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I279" s="8">
         <v>2</v>
@@ -9719,7 +9715,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="280" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
         <v>80</v>
       </c>
@@ -9771,9 +9767,9 @@
         <v>0.58422518478336083</v>
       </c>
     </row>
-    <row r="281" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B281" s="8">
         <v>-46740.49</v>
@@ -9788,7 +9784,7 @@
         <v>23</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I281" s="8">
         <v>2</v>
@@ -9826,9 +9822,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B282" s="8">
         <v>-21.5</v>
@@ -9881,7 +9877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
         <v>205</v>
       </c>
@@ -9930,9 +9926,9 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="284" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B284" s="12">
         <v>83.18</v>
@@ -9979,7 +9975,7 @@
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
         <v>207</v>
       </c>
@@ -10028,7 +10024,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="286" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
         <v>207</v>
       </c>
@@ -10077,7 +10073,7 @@
         <v>0.51215847306170115</v>
       </c>
     </row>
-    <row r="287" spans="1:19" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="12"/>
       <c r="K287" s="9"/>
       <c r="L287" s="9"/>
@@ -10086,7 +10082,7 @@
       <c r="O287" s="9"/>
       <c r="P287" s="9"/>
     </row>
-    <row r="288" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>0</v>
       </c>
@@ -10094,7 +10090,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1</v>
       </c>
@@ -10102,7 +10098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>3</v>
       </c>
@@ -10110,7 +10106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -10118,7 +10114,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -10126,7 +10122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -10134,7 +10130,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -10142,7 +10138,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -10150,12 +10146,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -10178,7 +10174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>156</v>
       </c>
@@ -10201,7 +10197,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>37</v>
       </c>
@@ -10224,7 +10220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>66</v>
       </c>
@@ -10247,7 +10243,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>69</v>
       </c>
@@ -10270,7 +10266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>20</v>
       </c>
@@ -10293,7 +10289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>71</v>
       </c>
@@ -10316,7 +10312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>73</v>
       </c>
@@ -10339,7 +10335,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>75</v>
       </c>
@@ -10362,7 +10358,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>76</v>
       </c>
@@ -10385,7 +10381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>78</v>
       </c>
@@ -10408,7 +10404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>79</v>
       </c>
@@ -10431,7 +10427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>80</v>
       </c>
@@ -10454,7 +10450,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>170</v>
       </c>
@@ -10477,7 +10473,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -10501,8 +10497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="313" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>0</v>
       </c>
@@ -10510,7 +10505,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1</v>
       </c>
@@ -10518,7 +10513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>3</v>
       </c>
@@ -10526,7 +10521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -10534,7 +10529,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -10542,7 +10537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -10550,7 +10545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>10</v>
       </c>
@@ -10558,7 +10553,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -10566,12 +10561,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>13</v>
       </c>
@@ -10594,7 +10589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>157</v>
       </c>
@@ -10617,7 +10612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>37</v>
       </c>
@@ -10640,7 +10635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>66</v>
       </c>
@@ -10663,7 +10658,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>69</v>
       </c>
@@ -10686,7 +10681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>20</v>
       </c>
@@ -10709,7 +10704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>71</v>
       </c>
@@ -10732,7 +10727,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>73</v>
       </c>
@@ -10755,7 +10750,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>75</v>
       </c>
@@ -10778,7 +10773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>76</v>
       </c>
@@ -10801,7 +10796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>78</v>
       </c>
@@ -10824,7 +10819,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>79</v>
       </c>
@@ -10847,7 +10842,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>80</v>
       </c>
@@ -10870,7 +10865,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>170</v>
       </c>
@@ -10893,7 +10888,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>58</v>
       </c>
@@ -10917,8 +10912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="338" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>0</v>
       </c>
@@ -10926,7 +10920,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1</v>
       </c>
@@ -10934,7 +10928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>3</v>
       </c>
@@ -10942,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -10950,7 +10944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -10958,7 +10952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -10966,7 +10960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>10</v>
       </c>
@@ -10974,7 +10968,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -10982,12 +10976,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -11013,7 +11007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>120</v>
       </c>
@@ -11036,7 +11030,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>128</v>
       </c>
@@ -11059,7 +11053,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>125</v>
       </c>
@@ -11082,7 +11076,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>123</v>
       </c>
@@ -11105,7 +11099,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>132</v>
       </c>
@@ -11128,7 +11122,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>58</v>
       </c>
@@ -11151,8 +11145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="355" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>0</v>
       </c>
@@ -11160,7 +11153,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1</v>
       </c>
@@ -11168,7 +11161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>3</v>
       </c>
@@ -11176,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -11184,7 +11177,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -11192,7 +11185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -11200,7 +11193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>10</v>
       </c>
@@ -11208,7 +11201,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -11216,12 +11209,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -11247,7 +11240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>130</v>
       </c>
@@ -11270,7 +11263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>128</v>
       </c>
@@ -11293,7 +11286,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>125</v>
       </c>
@@ -11316,7 +11309,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>123</v>
       </c>
@@ -11339,7 +11332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>132</v>
       </c>
@@ -11362,7 +11355,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>58</v>
       </c>
@@ -11385,7 +11378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>94</v>
       </c>
@@ -11409,8 +11402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="373" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>0</v>
       </c>
@@ -11418,7 +11410,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1</v>
       </c>
@@ -11426,7 +11418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>3</v>
       </c>
@@ -11434,7 +11426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -11442,7 +11434,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -11450,7 +11442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -11458,7 +11450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>10</v>
       </c>
@@ -11466,7 +11458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -11474,12 +11466,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -11505,7 +11497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>132</v>
       </c>
@@ -11528,7 +11520,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>134</v>
       </c>
@@ -11551,7 +11543,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>136</v>
       </c>
@@ -11574,7 +11566,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>138</v>
       </c>
@@ -11597,7 +11589,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>141</v>
       </c>
@@ -11620,7 +11612,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>58</v>
       </c>
@@ -11643,7 +11635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>94</v>
       </c>
@@ -11666,7 +11658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>170</v>
       </c>
@@ -11689,8 +11681,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="392" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>0</v>
       </c>
@@ -11698,7 +11689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1</v>
       </c>
@@ -11706,7 +11697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>3</v>
       </c>
@@ -11714,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -11722,7 +11713,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -11730,7 +11721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -11738,7 +11729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>10</v>
       </c>
@@ -11746,7 +11737,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -11754,12 +11745,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>13</v>
       </c>
@@ -11785,7 +11776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>146</v>
       </c>
@@ -11808,7 +11799,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>58</v>
       </c>
@@ -11831,7 +11822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>143</v>
       </c>
@@ -11854,8 +11845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="406" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>0</v>
       </c>
@@ -11863,7 +11853,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1</v>
       </c>
@@ -11871,7 +11861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>3</v>
       </c>
@@ -11879,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>4</v>
       </c>
@@ -11887,7 +11877,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -11895,7 +11885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -11903,7 +11893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>10</v>
       </c>
@@ -11911,7 +11901,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -11919,12 +11909,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>13</v>
       </c>
@@ -11950,7 +11940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>147</v>
       </c>
@@ -11973,7 +11963,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>58</v>
       </c>
@@ -11996,7 +11986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>146</v>
       </c>
@@ -12019,8 +12009,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="420" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>0</v>
       </c>
@@ -12028,7 +12017,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1</v>
       </c>
@@ -12036,7 +12025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>3</v>
       </c>
@@ -12044,7 +12033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -12052,7 +12041,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -12060,7 +12049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -12068,7 +12057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>10</v>
       </c>
@@ -12076,7 +12065,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>8</v>
       </c>
@@ -12084,12 +12073,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -12115,7 +12104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>150</v>
       </c>
@@ -12138,7 +12127,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>58</v>
       </c>
@@ -12161,7 +12150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>154</v>
       </c>
@@ -12184,8 +12173,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="434" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>0</v>
       </c>
@@ -12193,7 +12181,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1</v>
       </c>
@@ -12201,7 +12189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>3</v>
       </c>
@@ -12209,7 +12197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>4</v>
       </c>
@@ -12217,7 +12205,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>5</v>
       </c>
@@ -12225,7 +12213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -12233,7 +12221,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>10</v>
       </c>
@@ -12241,7 +12229,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -12249,12 +12237,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -12277,7 +12265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>158</v>
       </c>
@@ -12300,7 +12288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>58</v>
       </c>
@@ -12324,8 +12312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="447" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>0</v>
       </c>
@@ -12333,7 +12320,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1</v>
       </c>
@@ -12341,7 +12328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>3</v>
       </c>
@@ -12349,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -12357,7 +12344,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>5</v>
       </c>
@@ -12365,7 +12352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -12373,7 +12360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>10</v>
       </c>
@@ -12381,7 +12368,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -12389,12 +12376,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>13</v>
       </c>
@@ -12417,7 +12404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>160</v>
       </c>
@@ -12440,7 +12427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>58</v>
       </c>
@@ -12465,13 +12452,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I458" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="market for sand"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I458" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
